--- a/Data/Burundi final v2.xlsx
+++ b/Data/Burundi final v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Theresa\Documents\Studium\Master\2. Semester\Case Studies\IRP-framework-master\Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sabrina\Documents\GitHub\IRP-framework\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2EF3E6-53D1-4A7F-B586-BC1EAF989EEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97DF516-48AB-4D4A-94F5-04E4B19A397D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{5975349C-58A3-4B5B-8FE6-1441333428CB}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="1" xr2:uid="{5975349C-58A3-4B5B-8FE6-1441333428CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Schools" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1058,364 +1056,6 @@
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="42">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1796,6 +1436,364 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1842,47 +1840,47 @@
     <sortCondition ref="A1:A208"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{E5C5CD31-DB14-4BCA-9F11-3AA7A7551D2B}" name="Name_ID" dataDxfId="20" totalsRowDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{EB335BE7-11E3-434A-B317-30C0F850D50E}" name="Total Sum of Beneficiaries" dataDxfId="19" totalsRowDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{548C3917-F847-4593-A558-D428505FFBD5}" name="Total Sum of Commodities" dataDxfId="18" totalsRowDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{FE888112-53D5-4BA1-A73D-44D889EF4C4D}" name="Consumption per day in mt" dataDxfId="17" totalsRowDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{16626E44-7904-4057-88C7-E83A60A6E39B}" name="Consumption per week in mt" dataDxfId="16" totalsRowDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{BCB38217-DC5E-4A6B-90D0-4ED4225CA0CB}" name="Latitude" dataDxfId="15" totalsRowDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{26DFB5ED-C9CB-4B62-A8A1-67C23CE6A976}" name="Longitude" dataDxfId="14" totalsRowDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{AAB748E8-3709-4A83-AC4C-F11F31AEC3F8}" name="Capacity" dataDxfId="13" totalsRowDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{8C005587-5BD7-4A0F-A7C5-F8E1AD8666E0}" name="Lower" dataDxfId="12" totalsRowDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{6E875271-034D-4F07-BB60-56AAB571D1F0}" name="Initial" dataDxfId="21" totalsRowDxfId="1"/>
-    <tableColumn id="13" xr3:uid="{D05CCBD5-F14E-46D5-BC67-17C58FC0BB3E}" name="Storage Cost" dataDxfId="11" totalsRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{E5C5CD31-DB14-4BCA-9F11-3AA7A7551D2B}" name="Name_ID" dataDxfId="39" totalsRowDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{EB335BE7-11E3-434A-B317-30C0F850D50E}" name="Total Sum of Beneficiaries" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{548C3917-F847-4593-A558-D428505FFBD5}" name="Total Sum of Commodities" dataDxfId="35" totalsRowDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{FE888112-53D5-4BA1-A73D-44D889EF4C4D}" name="Consumption per day in mt" dataDxfId="33" totalsRowDxfId="32"/>
+    <tableColumn id="6" xr3:uid="{16626E44-7904-4057-88C7-E83A60A6E39B}" name="Consumption per week in mt" dataDxfId="31" totalsRowDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{BCB38217-DC5E-4A6B-90D0-4ED4225CA0CB}" name="Latitude" dataDxfId="29" totalsRowDxfId="28"/>
+    <tableColumn id="8" xr3:uid="{26DFB5ED-C9CB-4B62-A8A1-67C23CE6A976}" name="Longitude" dataDxfId="27" totalsRowDxfId="26"/>
+    <tableColumn id="10" xr3:uid="{AAB748E8-3709-4A83-AC4C-F11F31AEC3F8}" name="Capacity" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="11" xr3:uid="{8C005587-5BD7-4A0F-A7C5-F8E1AD8666E0}" name="Lower" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="12" xr3:uid="{6E875271-034D-4F07-BB60-56AAB571D1F0}" name="Initial" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="13" xr3:uid="{D05CCBD5-F14E-46D5-BC67-17C58FC0BB3E}" name="Storage Cost" dataDxfId="19" totalsRowDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{806E747E-CCA2-4A06-99C5-B543826C2E17}" name="Tabelle2" displayName="Tabelle2" ref="A1:G4" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{806E747E-CCA2-4A06-99C5-B543826C2E17}" name="Tabelle2" displayName="Tabelle2" ref="A1:G4" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="A1:G4" xr:uid="{864CDD6B-12DB-4E16-9534-F378F26389A1}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{412BEF91-95C9-4F97-AB74-BDA5528E1CB3}" name="Name" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{05CA1024-D8D3-4457-9A4F-6DE1CBB47D2B}" name="Latitude" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{4C32D59A-9088-4996-B7B2-DF8A1B05203A}" name="Longitude" dataDxfId="35"/>
-    <tableColumn id="5" xr3:uid="{89315792-D525-46B0-A33D-3527CD856DE7}" name="Capacity" dataDxfId="34"/>
-    <tableColumn id="6" xr3:uid="{FAE2B975-1DB4-428D-8894-22256F93BDDE}" name="Lower" dataDxfId="33"/>
-    <tableColumn id="7" xr3:uid="{5412C3A0-F2C5-41BF-AB57-3DA19ECECCCE}" name="Initial" dataDxfId="32"/>
-    <tableColumn id="8" xr3:uid="{F795114F-5871-4C9B-A276-526B58F4F0AC}" name="Fixed Cost" dataDxfId="31"/>
+    <tableColumn id="1" xr3:uid="{412BEF91-95C9-4F97-AB74-BDA5528E1CB3}" name="Name" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{05CA1024-D8D3-4457-9A4F-6DE1CBB47D2B}" name="Latitude" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{4C32D59A-9088-4996-B7B2-DF8A1B05203A}" name="Longitude" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{89315792-D525-46B0-A33D-3527CD856DE7}" name="Capacity" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{FAE2B975-1DB4-428D-8894-22256F93BDDE}" name="Lower" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{5412C3A0-F2C5-41BF-AB57-3DA19ECECCCE}" name="Initial" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{F795114F-5871-4C9B-A276-526B58F4F0AC}" name="Fixed Cost" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{20607441-2822-4CBC-811D-6A720D2C0079}" name="Tabelle35" displayName="Tabelle35" ref="A1:E28" totalsRowShown="0" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{20607441-2822-4CBC-811D-6A720D2C0079}" name="Tabelle35" displayName="Tabelle35" ref="A1:E28" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5">
   <autoFilter ref="A1:E28" xr:uid="{A087B6AD-DA33-423B-AC5A-C78EC6ECE7C3}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{70E6D459-D65C-49D5-AFD8-F2C8B94F172C}" name="Warehouse" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{53F8F05A-C7EF-4F2A-9371-0AD6A3308910}" name="Plate Nr" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{D336F1A3-312C-438B-BB6E-7B78105D614F}" name="Make" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{BC7DFCB7-A6F5-467D-9332-84EA184D4680}" name="Model" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{FA060E72-4F17-4F75-A82D-558D419C0895}" name="Capacity in MT" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{70E6D459-D65C-49D5-AFD8-F2C8B94F172C}" name="Warehouse" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{53F8F05A-C7EF-4F2A-9371-0AD6A3308910}" name="Plate Nr" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{D336F1A3-312C-438B-BB6E-7B78105D614F}" name="Make" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{BC7DFCB7-A6F5-467D-9332-84EA184D4680}" name="Model" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{FA060E72-4F17-4F75-A82D-558D419C0895}" name="Capacity in MT" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2187,21 +2185,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65252ADD-2539-421B-8440-8530B4AE7D99}">
   <dimension ref="A1:K209"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="1"/>
+    <col min="1" max="1" width="11.53125" style="1"/>
     <col min="2" max="2" width="25.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.77734375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="11.5546875" style="1"/>
+    <col min="3" max="3" width="25.53125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.1328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.796875" style="1" customWidth="1"/>
+    <col min="6" max="7" width="11.53125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2236,7 +2234,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -2271,7 +2269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -2306,7 +2304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -2341,7 +2339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -2376,7 +2374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -2411,7 +2409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -2446,7 +2444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -2481,7 +2479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -2516,7 +2514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -2551,7 +2549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -2586,7 +2584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -2621,7 +2619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -2656,7 +2654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
@@ -2691,7 +2689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
@@ -2726,7 +2724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
@@ -2761,7 +2759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
@@ -2796,7 +2794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
@@ -2831,7 +2829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
@@ -2866,7 +2864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
@@ -2901,7 +2899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
@@ -2936,7 +2934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
@@ -2971,7 +2969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
@@ -3006,7 +3004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
@@ -3041,7 +3039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
@@ -3076,7 +3074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>32</v>
       </c>
@@ -3111,7 +3109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>33</v>
       </c>
@@ -3146,7 +3144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>34</v>
       </c>
@@ -3181,7 +3179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>35</v>
       </c>
@@ -3216,7 +3214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>36</v>
       </c>
@@ -3251,7 +3249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>37</v>
       </c>
@@ -3286,7 +3284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>38</v>
       </c>
@@ -3321,7 +3319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>39</v>
       </c>
@@ -3356,7 +3354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>40</v>
       </c>
@@ -3391,7 +3389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>41</v>
       </c>
@@ -3426,7 +3424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>42</v>
       </c>
@@ -3461,7 +3459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>43</v>
       </c>
@@ -3496,7 +3494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
         <v>44</v>
       </c>
@@ -3531,7 +3529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>45</v>
       </c>
@@ -3566,7 +3564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>46</v>
       </c>
@@ -3601,7 +3599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>47</v>
       </c>
@@ -3636,7 +3634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
         <v>48</v>
       </c>
@@ -3671,7 +3669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>49</v>
       </c>
@@ -3706,7 +3704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
         <v>50</v>
       </c>
@@ -3741,7 +3739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
         <v>51</v>
       </c>
@@ -3776,7 +3774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
         <v>52</v>
       </c>
@@ -3811,7 +3809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
         <v>53</v>
       </c>
@@ -3846,7 +3844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
         <v>54</v>
       </c>
@@ -3881,7 +3879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
         <v>55</v>
       </c>
@@ -3916,7 +3914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
         <v>56</v>
       </c>
@@ -3951,7 +3949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
         <v>57</v>
       </c>
@@ -3986,7 +3984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
         <v>58</v>
       </c>
@@ -4021,7 +4019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
         <v>59</v>
       </c>
@@ -4056,7 +4054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
         <v>60</v>
       </c>
@@ -4091,7 +4089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
         <v>61</v>
       </c>
@@ -4126,7 +4124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
         <v>62</v>
       </c>
@@ -4161,7 +4159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
         <v>63</v>
       </c>
@@ -4196,7 +4194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
         <v>64</v>
       </c>
@@ -4231,7 +4229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
         <v>202</v>
       </c>
@@ -4266,7 +4264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
         <v>65</v>
       </c>
@@ -4301,7 +4299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
         <v>66</v>
       </c>
@@ -4336,7 +4334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
         <v>67</v>
       </c>
@@ -4371,7 +4369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
         <v>68</v>
       </c>
@@ -4406,7 +4404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
         <v>69</v>
       </c>
@@ -4441,7 +4439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
         <v>70</v>
       </c>
@@ -4476,7 +4474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
         <v>71</v>
       </c>
@@ -4511,7 +4509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
         <v>72</v>
       </c>
@@ -4546,7 +4544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
         <v>73</v>
       </c>
@@ -4581,7 +4579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
         <v>74</v>
       </c>
@@ -4616,7 +4614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
         <v>75</v>
       </c>
@@ -4651,7 +4649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
         <v>76</v>
       </c>
@@ -4686,7 +4684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
         <v>77</v>
       </c>
@@ -4721,7 +4719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
         <v>78</v>
       </c>
@@ -4756,7 +4754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
         <v>79</v>
       </c>
@@ -4791,7 +4789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
         <v>80</v>
       </c>
@@ -4826,7 +4824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
         <v>81</v>
       </c>
@@ -4861,7 +4859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
         <v>82</v>
       </c>
@@ -4896,7 +4894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
         <v>83</v>
       </c>
@@ -4931,7 +4929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
         <v>83</v>
       </c>
@@ -4966,7 +4964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
         <v>84</v>
       </c>
@@ -5001,7 +4999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
         <v>85</v>
       </c>
@@ -5036,7 +5034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
         <v>86</v>
       </c>
@@ -5071,7 +5069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
         <v>87</v>
       </c>
@@ -5106,7 +5104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
         <v>88</v>
       </c>
@@ -5141,7 +5139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
         <v>89</v>
       </c>
@@ -5176,7 +5174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
         <v>90</v>
       </c>
@@ -5211,7 +5209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
         <v>91</v>
       </c>
@@ -5246,7 +5244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
         <v>92</v>
       </c>
@@ -5281,7 +5279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
         <v>93</v>
       </c>
@@ -5316,7 +5314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
         <v>94</v>
       </c>
@@ -5351,7 +5349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
         <v>95</v>
       </c>
@@ -5386,7 +5384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
         <v>96</v>
       </c>
@@ -5421,7 +5419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
         <v>97</v>
       </c>
@@ -5456,7 +5454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
         <v>98</v>
       </c>
@@ -5491,7 +5489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="s">
         <v>99</v>
       </c>
@@ -5526,7 +5524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="s">
         <v>100</v>
       </c>
@@ -5561,7 +5559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A97" s="1" t="s">
         <v>101</v>
       </c>
@@ -5596,7 +5594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A98" s="1" t="s">
         <v>102</v>
       </c>
@@ -5631,7 +5629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A99" s="1" t="s">
         <v>103</v>
       </c>
@@ -5666,7 +5664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A100" s="1" t="s">
         <v>104</v>
       </c>
@@ -5701,7 +5699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A101" s="1" t="s">
         <v>105</v>
       </c>
@@ -5736,7 +5734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A102" s="1" t="s">
         <v>106</v>
       </c>
@@ -5771,7 +5769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A103" s="1" t="s">
         <v>107</v>
       </c>
@@ -5806,7 +5804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A104" s="1" t="s">
         <v>108</v>
       </c>
@@ -5841,7 +5839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A105" s="1" t="s">
         <v>109</v>
       </c>
@@ -5876,7 +5874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A106" s="1" t="s">
         <v>110</v>
       </c>
@@ -5911,7 +5909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A107" s="1" t="s">
         <v>111</v>
       </c>
@@ -5946,7 +5944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A108" s="1" t="s">
         <v>112</v>
       </c>
@@ -5981,7 +5979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A109" s="1" t="s">
         <v>113</v>
       </c>
@@ -6016,7 +6014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A110" s="1" t="s">
         <v>114</v>
       </c>
@@ -6051,7 +6049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A111" s="1" t="s">
         <v>115</v>
       </c>
@@ -6086,7 +6084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A112" s="1" t="s">
         <v>116</v>
       </c>
@@ -6121,7 +6119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A113" s="1" t="s">
         <v>117</v>
       </c>
@@ -6156,7 +6154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A114" s="1" t="s">
         <v>118</v>
       </c>
@@ -6191,7 +6189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A115" s="1" t="s">
         <v>119</v>
       </c>
@@ -6226,7 +6224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A116" s="1" t="s">
         <v>120</v>
       </c>
@@ -6261,7 +6259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A117" s="1" t="s">
         <v>121</v>
       </c>
@@ -6296,7 +6294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A118" s="1" t="s">
         <v>122</v>
       </c>
@@ -6331,7 +6329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A119" s="1" t="s">
         <v>123</v>
       </c>
@@ -6366,7 +6364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A120" s="1" t="s">
         <v>124</v>
       </c>
@@ -6401,7 +6399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A121" s="1" t="s">
         <v>125</v>
       </c>
@@ -6436,7 +6434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A122" s="1" t="s">
         <v>125</v>
       </c>
@@ -6471,7 +6469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A123" s="1" t="s">
         <v>126</v>
       </c>
@@ -6506,7 +6504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A124" s="1" t="s">
         <v>127</v>
       </c>
@@ -6541,7 +6539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A125" s="1" t="s">
         <v>203</v>
       </c>
@@ -6576,7 +6574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A126" s="1" t="s">
         <v>128</v>
       </c>
@@ -6611,7 +6609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A127" s="1" t="s">
         <v>129</v>
       </c>
@@ -6646,7 +6644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A128" s="1" t="s">
         <v>130</v>
       </c>
@@ -6681,7 +6679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A129" s="1" t="s">
         <v>131</v>
       </c>
@@ -6716,7 +6714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A130" s="1" t="s">
         <v>132</v>
       </c>
@@ -6751,7 +6749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A131" s="1" t="s">
         <v>133</v>
       </c>
@@ -6786,7 +6784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A132" s="1" t="s">
         <v>134</v>
       </c>
@@ -6821,7 +6819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A133" s="1" t="s">
         <v>135</v>
       </c>
@@ -6856,7 +6854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A134" s="1" t="s">
         <v>136</v>
       </c>
@@ -6891,7 +6889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A135" s="1" t="s">
         <v>204</v>
       </c>
@@ -6926,7 +6924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A136" s="1" t="s">
         <v>137</v>
       </c>
@@ -6961,7 +6959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A137" s="1" t="s">
         <v>138</v>
       </c>
@@ -6996,7 +6994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A138" s="1" t="s">
         <v>139</v>
       </c>
@@ -7031,7 +7029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A139" s="1" t="s">
         <v>140</v>
       </c>
@@ -7066,7 +7064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A140" s="1" t="s">
         <v>141</v>
       </c>
@@ -7101,7 +7099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A141" s="1" t="s">
         <v>142</v>
       </c>
@@ -7136,7 +7134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A142" s="1" t="s">
         <v>143</v>
       </c>
@@ -7171,7 +7169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A143" s="1" t="s">
         <v>144</v>
       </c>
@@ -7206,7 +7204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A144" s="1" t="s">
         <v>144</v>
       </c>
@@ -7241,7 +7239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A145" s="1" t="s">
         <v>145</v>
       </c>
@@ -7276,7 +7274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A146" s="1" t="s">
         <v>146</v>
       </c>
@@ -7311,7 +7309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A147" s="1" t="s">
         <v>147</v>
       </c>
@@ -7346,7 +7344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A148" s="1" t="s">
         <v>148</v>
       </c>
@@ -7381,7 +7379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A149" s="1" t="s">
         <v>149</v>
       </c>
@@ -7416,7 +7414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A150" s="1" t="s">
         <v>150</v>
       </c>
@@ -7451,7 +7449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A151" s="1" t="s">
         <v>151</v>
       </c>
@@ -7486,7 +7484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A152" s="1" t="s">
         <v>152</v>
       </c>
@@ -7521,7 +7519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A153" s="1" t="s">
         <v>153</v>
       </c>
@@ -7556,7 +7554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A154" s="1" t="s">
         <v>154</v>
       </c>
@@ -7591,7 +7589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A155" s="1" t="s">
         <v>205</v>
       </c>
@@ -7626,7 +7624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A156" s="1" t="s">
         <v>155</v>
       </c>
@@ -7661,7 +7659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A157" s="1" t="s">
         <v>156</v>
       </c>
@@ -7696,7 +7694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A158" s="1" t="s">
         <v>157</v>
       </c>
@@ -7731,7 +7729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A159" s="1" t="s">
         <v>158</v>
       </c>
@@ -7766,7 +7764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A160" s="1" t="s">
         <v>159</v>
       </c>
@@ -7801,7 +7799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A161" s="1" t="s">
         <v>160</v>
       </c>
@@ -7836,7 +7834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A162" s="1" t="s">
         <v>161</v>
       </c>
@@ -7871,7 +7869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A163" s="1" t="s">
         <v>162</v>
       </c>
@@ -7906,7 +7904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A164" s="1" t="s">
         <v>163</v>
       </c>
@@ -7941,7 +7939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A165" s="1" t="s">
         <v>164</v>
       </c>
@@ -7976,7 +7974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A166" s="1" t="s">
         <v>206</v>
       </c>
@@ -8011,7 +8009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A167" s="1" t="s">
         <v>165</v>
       </c>
@@ -8046,7 +8044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A168" s="1" t="s">
         <v>166</v>
       </c>
@@ -8081,7 +8079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A169" s="1" t="s">
         <v>167</v>
       </c>
@@ -8116,7 +8114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A170" s="1" t="s">
         <v>207</v>
       </c>
@@ -8151,7 +8149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A171" s="1" t="s">
         <v>168</v>
       </c>
@@ -8186,7 +8184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A172" s="1" t="s">
         <v>169</v>
       </c>
@@ -8221,7 +8219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A173" s="1" t="s">
         <v>208</v>
       </c>
@@ -8256,7 +8254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A174" s="1" t="s">
         <v>170</v>
       </c>
@@ -8291,7 +8289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A175" s="1" t="s">
         <v>171</v>
       </c>
@@ -8326,7 +8324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A176" s="1" t="s">
         <v>172</v>
       </c>
@@ -8361,7 +8359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A177" s="1" t="s">
         <v>173</v>
       </c>
@@ -8396,7 +8394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A178" s="1" t="s">
         <v>174</v>
       </c>
@@ -8431,7 +8429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A179" s="1" t="s">
         <v>175</v>
       </c>
@@ -8466,7 +8464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A180" s="1" t="s">
         <v>176</v>
       </c>
@@ -8501,7 +8499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A181" s="1" t="s">
         <v>177</v>
       </c>
@@ -8536,7 +8534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A182" s="1" t="s">
         <v>178</v>
       </c>
@@ -8571,7 +8569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A183" s="1" t="s">
         <v>179</v>
       </c>
@@ -8606,7 +8604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A184" s="1" t="s">
         <v>180</v>
       </c>
@@ -8641,7 +8639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A185" s="1" t="s">
         <v>181</v>
       </c>
@@ -8676,7 +8674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A186" s="1" t="s">
         <v>182</v>
       </c>
@@ -8711,7 +8709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A187" s="1" t="s">
         <v>183</v>
       </c>
@@ -8746,7 +8744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A188" s="1" t="s">
         <v>184</v>
       </c>
@@ -8781,7 +8779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A189" s="1" t="s">
         <v>185</v>
       </c>
@@ -8816,7 +8814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A190" s="1" t="s">
         <v>186</v>
       </c>
@@ -8851,7 +8849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A191" s="1" t="s">
         <v>187</v>
       </c>
@@ -8886,7 +8884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A192" s="1" t="s">
         <v>188</v>
       </c>
@@ -8921,7 +8919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A193" s="1" t="s">
         <v>189</v>
       </c>
@@ -8956,7 +8954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A194" s="1" t="s">
         <v>190</v>
       </c>
@@ -8991,7 +8989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A195" s="1" t="s">
         <v>191</v>
       </c>
@@ -9026,7 +9024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A196" s="1" t="s">
         <v>192</v>
       </c>
@@ -9061,7 +9059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A197" s="1" t="s">
         <v>209</v>
       </c>
@@ -9096,7 +9094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A198" s="1" t="s">
         <v>210</v>
       </c>
@@ -9131,7 +9129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A199" s="1" t="s">
         <v>193</v>
       </c>
@@ -9166,7 +9164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A200" s="1" t="s">
         <v>211</v>
       </c>
@@ -9201,7 +9199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A201" s="1" t="s">
         <v>194</v>
       </c>
@@ -9236,7 +9234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A202" s="1" t="s">
         <v>195</v>
       </c>
@@ -9271,7 +9269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A203" s="1" t="s">
         <v>196</v>
       </c>
@@ -9306,7 +9304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A204" s="1" t="s">
         <v>197</v>
       </c>
@@ -9341,7 +9339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A205" s="1" t="s">
         <v>198</v>
       </c>
@@ -9376,7 +9374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A206" s="1" t="s">
         <v>199</v>
       </c>
@@ -9411,7 +9409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A207" s="1" t="s">
         <v>200</v>
       </c>
@@ -9446,7 +9444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A208" s="1" t="s">
         <v>201</v>
       </c>
@@ -9481,7 +9479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="8:11" x14ac:dyDescent="0.45">
       <c r="H209" s="14"/>
       <c r="I209" s="14"/>
       <c r="J209" s="14"/>
@@ -9502,18 +9500,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5307C4E-D51E-4E16-960B-CB790613AD8F}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D21:D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.21875" customWidth="1"/>
-    <col min="7" max="7" width="11.77734375" customWidth="1"/>
+    <col min="4" max="4" width="13.19921875" customWidth="1"/>
+    <col min="7" max="7" width="11.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -9536,7 +9534,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="11" t="s">
         <v>236</v>
       </c>
@@ -9553,13 +9551,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="11" t="s">
         <v>249</v>
       </c>
@@ -9582,7 +9580,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="11" t="s">
         <v>220</v>
       </c>
@@ -9621,14 +9619,14 @@
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.21875" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" customWidth="1"/>
+    <col min="1" max="1" width="12.19921875" customWidth="1"/>
+    <col min="3" max="3" width="13.1328125" customWidth="1"/>
+    <col min="5" max="5" width="15.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>262</v>
       </c>
@@ -9645,7 +9643,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
         <v>220</v>
       </c>
@@ -9662,7 +9660,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
         <v>220</v>
       </c>
@@ -9679,7 +9677,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
         <v>220</v>
       </c>
@@ -9696,7 +9694,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="10" t="s">
         <v>220</v>
       </c>
@@ -9713,7 +9711,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="10" t="s">
         <v>220</v>
       </c>
@@ -9730,7 +9728,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="10" t="s">
         <v>220</v>
       </c>
@@ -9747,7 +9745,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="10" t="s">
         <v>220</v>
       </c>
@@ -9764,7 +9762,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="10" t="s">
         <v>220</v>
       </c>
@@ -9781,7 +9779,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="10" t="s">
         <v>236</v>
       </c>
@@ -9798,7 +9796,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="10" t="s">
         <v>236</v>
       </c>
@@ -9815,7 +9813,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="10" t="s">
         <v>236</v>
       </c>
@@ -9832,7 +9830,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="10" t="s">
         <v>236</v>
       </c>
@@ -9849,7 +9847,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="10" t="s">
         <v>236</v>
       </c>
@@ -9866,7 +9864,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="10" t="s">
         <v>236</v>
       </c>
@@ -9883,7 +9881,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="10" t="s">
         <v>236</v>
       </c>
@@ -9900,7 +9898,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="10" t="s">
         <v>236</v>
       </c>
@@ -9917,7 +9915,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="10" t="s">
         <v>236</v>
       </c>
@@ -9934,7 +9932,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="10" t="s">
         <v>236</v>
       </c>
@@ -9951,7 +9949,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="10" t="s">
         <v>249</v>
       </c>
@@ -9968,7 +9966,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="10" t="s">
         <v>249</v>
       </c>
@@ -9985,7 +9983,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="10" t="s">
         <v>249</v>
       </c>
@@ -10002,7 +10000,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="10" t="s">
         <v>249</v>
       </c>
@@ -10019,7 +10017,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" s="10" t="s">
         <v>249</v>
       </c>
@@ -10036,7 +10034,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" s="10" t="s">
         <v>249</v>
       </c>
@@ -10053,7 +10051,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" s="10" t="s">
         <v>249</v>
       </c>
@@ -10070,7 +10068,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" s="10" t="s">
         <v>249</v>
       </c>
@@ -10087,7 +10085,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" s="10" t="s">
         <v>249</v>
       </c>

--- a/Data/Burundi final v2.xlsx
+++ b/Data/Burundi final v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sabrina\Documents\GitHub\IRP-framework\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97DF516-48AB-4D4A-94F5-04E4B19A397D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0A54C7-0229-4634-B929-30EA6029FDAC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="1" xr2:uid="{5975349C-58A3-4B5B-8FE6-1441333428CB}"/>
+    <workbookView xWindow="893" yWindow="2573" windowWidth="21607" windowHeight="10515" xr2:uid="{5975349C-58A3-4B5B-8FE6-1441333428CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Schools" sheetId="1" r:id="rId1"/>
@@ -132,12 +132,6 @@
     <t>Total Sum of Commodities</t>
   </si>
   <si>
-    <t>Consumption per day in mt</t>
-  </si>
-  <si>
-    <t>Consumption per week in mt</t>
-  </si>
-  <si>
     <t>Latitude</t>
   </si>
   <si>
@@ -907,6 +901,12 @@
   </si>
   <si>
     <t>Warehouse</t>
+  </si>
+  <si>
+    <t>Consumption per day in MT</t>
+  </si>
+  <si>
+    <t>Consumption per week in MT</t>
   </si>
 </sst>
 </file>
@@ -1056,6 +1056,207 @@
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="42">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1436,11 +1637,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -1455,24 +1652,6 @@
     <dxf>
       <font>
         <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -1502,11 +1681,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -1522,59 +1697,6 @@
     <dxf>
       <font>
         <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -1602,11 +1724,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -1634,11 +1752,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -1653,120 +1767,6 @@
     <dxf>
       <font>
         <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -1840,47 +1840,47 @@
     <sortCondition ref="A1:A208"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{E5C5CD31-DB14-4BCA-9F11-3AA7A7551D2B}" name="Name_ID" dataDxfId="39" totalsRowDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{EB335BE7-11E3-434A-B317-30C0F850D50E}" name="Total Sum of Beneficiaries" dataDxfId="37" totalsRowDxfId="36"/>
-    <tableColumn id="4" xr3:uid="{548C3917-F847-4593-A558-D428505FFBD5}" name="Total Sum of Commodities" dataDxfId="35" totalsRowDxfId="34"/>
-    <tableColumn id="5" xr3:uid="{FE888112-53D5-4BA1-A73D-44D889EF4C4D}" name="Consumption per day in mt" dataDxfId="33" totalsRowDxfId="32"/>
-    <tableColumn id="6" xr3:uid="{16626E44-7904-4057-88C7-E83A60A6E39B}" name="Consumption per week in mt" dataDxfId="31" totalsRowDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{BCB38217-DC5E-4A6B-90D0-4ED4225CA0CB}" name="Latitude" dataDxfId="29" totalsRowDxfId="28"/>
-    <tableColumn id="8" xr3:uid="{26DFB5ED-C9CB-4B62-A8A1-67C23CE6A976}" name="Longitude" dataDxfId="27" totalsRowDxfId="26"/>
-    <tableColumn id="10" xr3:uid="{AAB748E8-3709-4A83-AC4C-F11F31AEC3F8}" name="Capacity" dataDxfId="25" totalsRowDxfId="24"/>
-    <tableColumn id="11" xr3:uid="{8C005587-5BD7-4A0F-A7C5-F8E1AD8666E0}" name="Lower" dataDxfId="23" totalsRowDxfId="22"/>
-    <tableColumn id="12" xr3:uid="{6E875271-034D-4F07-BB60-56AAB571D1F0}" name="Initial" dataDxfId="21" totalsRowDxfId="20"/>
-    <tableColumn id="13" xr3:uid="{D05CCBD5-F14E-46D5-BC67-17C58FC0BB3E}" name="Storage Cost" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{E5C5CD31-DB14-4BCA-9F11-3AA7A7551D2B}" name="Name_ID" dataDxfId="39" totalsRowDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{EB335BE7-11E3-434A-B317-30C0F850D50E}" name="Total Sum of Beneficiaries" dataDxfId="38" totalsRowDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{548C3917-F847-4593-A558-D428505FFBD5}" name="Total Sum of Commodities" dataDxfId="37" totalsRowDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{FE888112-53D5-4BA1-A73D-44D889EF4C4D}" name="Consumption per day in MT" dataDxfId="36" totalsRowDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{16626E44-7904-4057-88C7-E83A60A6E39B}" name="Consumption per week in MT" dataDxfId="35" totalsRowDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{BCB38217-DC5E-4A6B-90D0-4ED4225CA0CB}" name="Latitude" dataDxfId="34" totalsRowDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{26DFB5ED-C9CB-4B62-A8A1-67C23CE6A976}" name="Longitude" dataDxfId="33" totalsRowDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{AAB748E8-3709-4A83-AC4C-F11F31AEC3F8}" name="Capacity" dataDxfId="32" totalsRowDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{8C005587-5BD7-4A0F-A7C5-F8E1AD8666E0}" name="Lower" dataDxfId="31" totalsRowDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{6E875271-034D-4F07-BB60-56AAB571D1F0}" name="Initial" dataDxfId="30" totalsRowDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{D05CCBD5-F14E-46D5-BC67-17C58FC0BB3E}" name="Storage Cost" dataDxfId="29" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{806E747E-CCA2-4A06-99C5-B543826C2E17}" name="Tabelle2" displayName="Tabelle2" ref="A1:G4" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{806E747E-CCA2-4A06-99C5-B543826C2E17}" name="Tabelle2" displayName="Tabelle2" ref="A1:G4" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
   <autoFilter ref="A1:G4" xr:uid="{864CDD6B-12DB-4E16-9534-F378F26389A1}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{412BEF91-95C9-4F97-AB74-BDA5528E1CB3}" name="Name" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{05CA1024-D8D3-4457-9A4F-6DE1CBB47D2B}" name="Latitude" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{4C32D59A-9088-4996-B7B2-DF8A1B05203A}" name="Longitude" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{89315792-D525-46B0-A33D-3527CD856DE7}" name="Capacity" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{FAE2B975-1DB4-428D-8894-22256F93BDDE}" name="Lower" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{5412C3A0-F2C5-41BF-AB57-3DA19ECECCCE}" name="Initial" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{F795114F-5871-4C9B-A276-526B58F4F0AC}" name="Fixed Cost" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{412BEF91-95C9-4F97-AB74-BDA5528E1CB3}" name="Name" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{05CA1024-D8D3-4457-9A4F-6DE1CBB47D2B}" name="Latitude" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{4C32D59A-9088-4996-B7B2-DF8A1B05203A}" name="Longitude" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{89315792-D525-46B0-A33D-3527CD856DE7}" name="Capacity" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{FAE2B975-1DB4-428D-8894-22256F93BDDE}" name="Lower" dataDxfId="22"/>
+    <tableColumn id="7" xr3:uid="{5412C3A0-F2C5-41BF-AB57-3DA19ECECCCE}" name="Initial" dataDxfId="21"/>
+    <tableColumn id="8" xr3:uid="{F795114F-5871-4C9B-A276-526B58F4F0AC}" name="Fixed Cost" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{20607441-2822-4CBC-811D-6A720D2C0079}" name="Tabelle35" displayName="Tabelle35" ref="A1:E28" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{20607441-2822-4CBC-811D-6A720D2C0079}" name="Tabelle35" displayName="Tabelle35" ref="A1:E28" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16">
   <autoFilter ref="A1:E28" xr:uid="{A087B6AD-DA33-423B-AC5A-C78EC6ECE7C3}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{70E6D459-D65C-49D5-AFD8-F2C8B94F172C}" name="Warehouse" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{53F8F05A-C7EF-4F2A-9371-0AD6A3308910}" name="Plate Nr" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{D336F1A3-312C-438B-BB6E-7B78105D614F}" name="Make" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{BC7DFCB7-A6F5-467D-9332-84EA184D4680}" name="Model" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{FA060E72-4F17-4F75-A82D-558D419C0895}" name="Capacity in MT" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{70E6D459-D65C-49D5-AFD8-F2C8B94F172C}" name="Warehouse" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{53F8F05A-C7EF-4F2A-9371-0AD6A3308910}" name="Plate Nr" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{D336F1A3-312C-438B-BB6E-7B78105D614F}" name="Make" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{BC7DFCB7-A6F5-467D-9332-84EA184D4680}" name="Model" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{FA060E72-4F17-4F75-A82D-558D419C0895}" name="Capacity in MT" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2185,8 +2185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65252ADD-2539-421B-8440-8530B4AE7D99}">
   <dimension ref="A1:K209"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2210,33 +2210,33 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="H1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1">
         <v>409</v>
@@ -2271,7 +2271,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1">
         <v>556</v>
@@ -2306,7 +2306,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1">
         <v>664</v>
@@ -2341,7 +2341,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1">
         <v>646</v>
@@ -2376,7 +2376,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1">
         <v>866</v>
@@ -2411,7 +2411,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1">
         <v>1160</v>
@@ -2446,7 +2446,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1">
         <v>548</v>
@@ -2481,7 +2481,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1">
         <v>551</v>
@@ -2516,7 +2516,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1">
         <v>535</v>
@@ -2551,7 +2551,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1">
         <v>348</v>
@@ -2586,7 +2586,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1">
         <v>941</v>
@@ -2621,7 +2621,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B13" s="1">
         <v>582</v>
@@ -2656,7 +2656,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B14" s="1">
         <v>1252</v>
@@ -2691,7 +2691,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B15" s="1">
         <v>787</v>
@@ -2726,7 +2726,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B16" s="1">
         <v>720</v>
@@ -2761,7 +2761,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B17" s="1">
         <v>688</v>
@@ -2796,7 +2796,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B18" s="1">
         <v>597</v>
@@ -2831,7 +2831,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B19" s="1">
         <v>1298</v>
@@ -2866,7 +2866,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B20" s="1">
         <v>1082</v>
@@ -2901,7 +2901,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B21" s="1">
         <v>970</v>
@@ -2936,7 +2936,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B22" s="1">
         <v>1224</v>
@@ -2971,7 +2971,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B23" s="1">
         <v>1134</v>
@@ -3006,7 +3006,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B24" s="1">
         <v>641</v>
@@ -3041,7 +3041,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B25" s="1">
         <v>535</v>
@@ -3076,7 +3076,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B26" s="1">
         <v>828</v>
@@ -3111,7 +3111,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B27" s="1">
         <v>824</v>
@@ -3146,7 +3146,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B28" s="1">
         <v>694</v>
@@ -3181,7 +3181,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B29" s="1">
         <v>909</v>
@@ -3216,7 +3216,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B30" s="1">
         <v>785</v>
@@ -3251,7 +3251,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B31" s="1">
         <v>1362</v>
@@ -3286,7 +3286,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B32" s="1">
         <v>1242</v>
@@ -3321,7 +3321,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B33" s="1">
         <v>710</v>
@@ -3356,7 +3356,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B34" s="1">
         <v>748</v>
@@ -3391,7 +3391,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B35" s="1">
         <v>359</v>
@@ -3426,7 +3426,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B36" s="1">
         <v>796</v>
@@ -3461,7 +3461,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B37" s="1">
         <v>963</v>
@@ -3496,7 +3496,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B38" s="1">
         <v>614</v>
@@ -3531,7 +3531,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B39" s="1">
         <v>1200</v>
@@ -3566,7 +3566,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B40" s="1">
         <v>809</v>
@@ -3601,7 +3601,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B41" s="1">
         <v>716</v>
@@ -3636,7 +3636,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B42" s="1">
         <v>442</v>
@@ -3671,7 +3671,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B43" s="1">
         <v>358</v>
@@ -3706,7 +3706,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B44" s="1">
         <v>563</v>
@@ -3741,7 +3741,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B45" s="1">
         <v>985</v>
@@ -3776,7 +3776,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B46" s="1">
         <v>1577</v>
@@ -3811,7 +3811,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B47" s="1">
         <v>652</v>
@@ -3846,7 +3846,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B48" s="1">
         <v>883</v>
@@ -3881,7 +3881,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B49" s="1">
         <v>824</v>
@@ -3916,7 +3916,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B50" s="1">
         <v>323</v>
@@ -3951,7 +3951,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B51" s="1">
         <v>611</v>
@@ -3986,7 +3986,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B52" s="1">
         <v>884</v>
@@ -4021,7 +4021,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B53" s="1">
         <v>928</v>
@@ -4056,7 +4056,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B54" s="1">
         <v>428</v>
@@ -4091,7 +4091,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B55" s="1">
         <v>391</v>
@@ -4126,7 +4126,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B56" s="1">
         <v>397</v>
@@ -4161,7 +4161,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B57" s="1">
         <v>515</v>
@@ -4196,7 +4196,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B58" s="1">
         <v>987</v>
@@ -4231,7 +4231,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B59" s="1">
         <v>905</v>
@@ -4266,7 +4266,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B60" s="1">
         <v>879</v>
@@ -4301,7 +4301,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B61" s="1">
         <v>1105</v>
@@ -4336,7 +4336,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B62" s="1">
         <v>677</v>
@@ -4371,7 +4371,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B63" s="1">
         <v>1310</v>
@@ -4406,7 +4406,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B64" s="1">
         <v>704</v>
@@ -4441,7 +4441,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B65" s="1">
         <v>705</v>
@@ -4476,7 +4476,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B66" s="1">
         <v>560</v>
@@ -4511,7 +4511,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B67" s="1">
         <v>333</v>
@@ -4546,7 +4546,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B68" s="1">
         <v>871</v>
@@ -4581,7 +4581,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B69" s="1">
         <v>761</v>
@@ -4616,7 +4616,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B70" s="1">
         <v>778</v>
@@ -4651,7 +4651,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B71" s="1">
         <v>754</v>
@@ -4686,7 +4686,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B72" s="1">
         <v>582</v>
@@ -4721,7 +4721,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B73" s="1">
         <v>303</v>
@@ -4756,7 +4756,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B74" s="1">
         <v>1525</v>
@@ -4791,7 +4791,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B75" s="1">
         <v>865</v>
@@ -4826,7 +4826,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B76" s="1">
         <v>428</v>
@@ -4861,7 +4861,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B77" s="1">
         <v>822</v>
@@ -4896,7 +4896,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B78" s="1">
         <v>1046</v>
@@ -4931,7 +4931,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B79" s="1">
         <v>653</v>
@@ -4966,7 +4966,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B80" s="1">
         <v>570</v>
@@ -5001,7 +5001,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B81" s="1">
         <v>701</v>
@@ -5036,7 +5036,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B82" s="1">
         <v>950</v>
@@ -5071,7 +5071,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B83" s="1">
         <v>634</v>
@@ -5106,7 +5106,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B84" s="1">
         <v>590</v>
@@ -5141,7 +5141,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B85" s="1">
         <v>528</v>
@@ -5176,7 +5176,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B86" s="1">
         <v>866</v>
@@ -5211,7 +5211,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B87" s="1">
         <v>796</v>
@@ -5246,7 +5246,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B88" s="1">
         <v>237</v>
@@ -5281,7 +5281,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B89" s="1">
         <v>515</v>
@@ -5316,7 +5316,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B90" s="1">
         <v>915</v>
@@ -5351,7 +5351,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B91" s="1">
         <v>703</v>
@@ -5386,7 +5386,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B92" s="1">
         <v>638</v>
@@ -5421,7 +5421,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B93" s="1">
         <v>722</v>
@@ -5456,7 +5456,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B94" s="1">
         <v>528</v>
@@ -5491,7 +5491,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B95" s="1">
         <v>816</v>
@@ -5526,7 +5526,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B96" s="1">
         <v>88</v>
@@ -5561,7 +5561,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B97" s="1">
         <v>610</v>
@@ -5596,7 +5596,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B98" s="1">
         <v>442</v>
@@ -5631,7 +5631,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B99" s="1">
         <v>266</v>
@@ -5666,7 +5666,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B100" s="1">
         <v>449</v>
@@ -5701,7 +5701,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B101" s="1">
         <v>516</v>
@@ -5736,7 +5736,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B102" s="1">
         <v>830</v>
@@ -5771,7 +5771,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B103" s="1">
         <v>644</v>
@@ -5806,7 +5806,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B104" s="1">
         <v>606</v>
@@ -5841,7 +5841,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A105" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B105" s="1">
         <v>408</v>
@@ -5876,7 +5876,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A106" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B106" s="1">
         <v>615</v>
@@ -5911,7 +5911,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A107" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B107" s="1">
         <v>1095</v>
@@ -5946,7 +5946,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A108" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B108" s="1">
         <v>393</v>
@@ -5981,7 +5981,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A109" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B109" s="1">
         <v>1293</v>
@@ -6016,7 +6016,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A110" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B110" s="1">
         <v>1185</v>
@@ -6051,7 +6051,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A111" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B111" s="1">
         <v>1067</v>
@@ -6086,7 +6086,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A112" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B112" s="1">
         <v>1172</v>
@@ -6121,7 +6121,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A113" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B113" s="1">
         <v>974</v>
@@ -6156,7 +6156,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A114" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B114" s="1">
         <v>485</v>
@@ -6191,7 +6191,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A115" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B115" s="1">
         <v>565</v>
@@ -6226,7 +6226,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A116" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B116" s="1">
         <v>475</v>
@@ -6261,7 +6261,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A117" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B117" s="1">
         <v>964</v>
@@ -6296,7 +6296,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A118" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B118" s="1">
         <v>1327</v>
@@ -6331,7 +6331,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A119" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B119" s="1">
         <v>619</v>
@@ -6366,7 +6366,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A120" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B120" s="1">
         <v>904</v>
@@ -6401,7 +6401,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A121" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B121" s="1">
         <v>1119</v>
@@ -6436,7 +6436,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A122" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B122" s="1">
         <v>750</v>
@@ -6471,7 +6471,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A123" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B123" s="1">
         <v>632</v>
@@ -6506,7 +6506,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A124" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B124" s="1">
         <v>845</v>
@@ -6541,7 +6541,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A125" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B125" s="1">
         <v>630</v>
@@ -6576,7 +6576,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A126" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B126" s="1">
         <v>1314</v>
@@ -6611,7 +6611,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A127" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B127" s="1">
         <v>904</v>
@@ -6646,7 +6646,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A128" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B128" s="1">
         <v>1940</v>
@@ -6681,7 +6681,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A129" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B129" s="1">
         <v>716</v>
@@ -6716,7 +6716,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A130" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B130" s="1">
         <v>746</v>
@@ -6751,7 +6751,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A131" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B131" s="1">
         <v>577</v>
@@ -6786,7 +6786,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A132" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B132" s="1">
         <v>723</v>
@@ -6821,7 +6821,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A133" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B133" s="1">
         <v>699</v>
@@ -6856,7 +6856,7 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A134" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B134" s="1">
         <v>635</v>
@@ -6891,7 +6891,7 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A135" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B135" s="1">
         <v>600</v>
@@ -6926,7 +6926,7 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A136" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B136" s="1">
         <v>1168</v>
@@ -6961,7 +6961,7 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A137" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B137" s="1">
         <v>590</v>
@@ -6996,7 +6996,7 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A138" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B138" s="1">
         <v>847</v>
@@ -7031,7 +7031,7 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A139" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B139" s="1">
         <v>848</v>
@@ -7066,7 +7066,7 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A140" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B140" s="1">
         <v>708</v>
@@ -7101,7 +7101,7 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A141" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B141" s="1">
         <v>903</v>
@@ -7136,7 +7136,7 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A142" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B142" s="1">
         <v>635</v>
@@ -7171,7 +7171,7 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A143" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B143" s="1">
         <v>1336</v>
@@ -7206,7 +7206,7 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A144" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B144" s="1">
         <v>933</v>
@@ -7241,7 +7241,7 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A145" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B145" s="1">
         <v>468</v>
@@ -7276,7 +7276,7 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A146" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B146" s="1">
         <v>1008</v>
@@ -7311,7 +7311,7 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A147" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B147" s="1">
         <v>1432</v>
@@ -7346,7 +7346,7 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A148" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B148" s="1">
         <v>731</v>
@@ -7381,7 +7381,7 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A149" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B149" s="1">
         <v>1084</v>
@@ -7416,7 +7416,7 @@
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A150" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B150" s="1">
         <v>1052</v>
@@ -7451,7 +7451,7 @@
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A151" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B151" s="1">
         <v>660</v>
@@ -7486,7 +7486,7 @@
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A152" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B152" s="1">
         <v>577</v>
@@ -7521,7 +7521,7 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A153" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B153" s="1">
         <v>389</v>
@@ -7556,7 +7556,7 @@
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A154" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B154" s="1">
         <v>1103</v>
@@ -7591,7 +7591,7 @@
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A155" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B155" s="1">
         <v>618</v>
@@ -7626,7 +7626,7 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A156" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B156" s="1">
         <v>1218</v>
@@ -7661,7 +7661,7 @@
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A157" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B157" s="1">
         <v>960</v>
@@ -7696,7 +7696,7 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A158" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B158" s="1">
         <v>402</v>
@@ -7731,7 +7731,7 @@
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A159" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B159" s="1">
         <v>788</v>
@@ -7766,7 +7766,7 @@
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A160" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B160" s="1">
         <v>668</v>
@@ -7801,7 +7801,7 @@
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A161" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B161" s="1">
         <v>705</v>
@@ -7836,7 +7836,7 @@
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A162" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B162" s="1">
         <v>960</v>
@@ -7871,7 +7871,7 @@
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A163" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B163" s="1">
         <v>812</v>
@@ -7906,7 +7906,7 @@
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A164" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B164" s="1">
         <v>939</v>
@@ -7941,7 +7941,7 @@
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A165" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B165" s="1">
         <v>611</v>
@@ -7976,7 +7976,7 @@
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A166" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B166" s="1">
         <v>1475</v>
@@ -8011,7 +8011,7 @@
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A167" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B167" s="1">
         <v>719</v>
@@ -8046,7 +8046,7 @@
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A168" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B168" s="1">
         <v>759</v>
@@ -8081,7 +8081,7 @@
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A169" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B169" s="1">
         <v>709</v>
@@ -8116,7 +8116,7 @@
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A170" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B170" s="1">
         <v>1087</v>
@@ -8151,7 +8151,7 @@
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A171" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B171" s="1">
         <v>724</v>
@@ -8186,7 +8186,7 @@
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A172" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B172" s="1">
         <v>701</v>
@@ -8221,7 +8221,7 @@
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A173" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B173" s="1">
         <v>461</v>
@@ -8256,7 +8256,7 @@
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A174" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B174" s="1">
         <v>690</v>
@@ -8291,7 +8291,7 @@
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A175" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B175" s="1">
         <v>505</v>
@@ -8326,7 +8326,7 @@
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A176" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B176" s="1">
         <v>532</v>
@@ -8361,7 +8361,7 @@
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A177" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B177" s="1">
         <v>772</v>
@@ -8396,7 +8396,7 @@
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A178" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B178" s="1">
         <v>877</v>
@@ -8431,7 +8431,7 @@
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A179" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B179" s="1">
         <v>1013</v>
@@ -8466,7 +8466,7 @@
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A180" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B180" s="1">
         <v>538</v>
@@ -8501,7 +8501,7 @@
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A181" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B181" s="1">
         <v>463</v>
@@ -8536,7 +8536,7 @@
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A182" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B182" s="1">
         <v>535</v>
@@ -8571,7 +8571,7 @@
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A183" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B183" s="1">
         <v>984</v>
@@ -8606,7 +8606,7 @@
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A184" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B184" s="1">
         <v>669</v>
@@ -8641,7 +8641,7 @@
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A185" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B185" s="1">
         <v>494</v>
@@ -8676,7 +8676,7 @@
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A186" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B186" s="1">
         <v>528</v>
@@ -8711,7 +8711,7 @@
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A187" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B187" s="1">
         <v>341</v>
@@ -8746,7 +8746,7 @@
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A188" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B188" s="1">
         <v>836</v>
@@ -8781,7 +8781,7 @@
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A189" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B189" s="1">
         <v>1742</v>
@@ -8816,7 +8816,7 @@
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A190" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B190" s="1">
         <v>682</v>
@@ -8851,7 +8851,7 @@
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A191" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B191" s="1">
         <v>665</v>
@@ -8886,7 +8886,7 @@
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A192" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B192" s="1">
         <v>758</v>
@@ -8921,7 +8921,7 @@
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A193" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B193" s="1">
         <v>847</v>
@@ -8956,7 +8956,7 @@
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A194" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B194" s="1">
         <v>2463</v>
@@ -8991,7 +8991,7 @@
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A195" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B195" s="1">
         <v>298</v>
@@ -9026,7 +9026,7 @@
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A196" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B196" s="1">
         <v>1680</v>
@@ -9061,7 +9061,7 @@
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A197" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B197" s="1">
         <v>1245</v>
@@ -9096,7 +9096,7 @@
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A198" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B198" s="1">
         <v>690</v>
@@ -9131,7 +9131,7 @@
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A199" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B199" s="1">
         <v>1150</v>
@@ -9166,7 +9166,7 @@
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A200" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B200" s="1">
         <v>821</v>
@@ -9201,7 +9201,7 @@
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A201" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B201" s="1">
         <v>530</v>
@@ -9236,7 +9236,7 @@
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A202" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B202" s="1">
         <v>577</v>
@@ -9271,7 +9271,7 @@
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A203" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B203" s="1">
         <v>749</v>
@@ -9306,7 +9306,7 @@
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A204" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B204" s="1">
         <v>524</v>
@@ -9341,7 +9341,7 @@
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A205" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B205" s="1">
         <v>874</v>
@@ -9376,7 +9376,7 @@
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A206" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B206" s="1">
         <v>824</v>
@@ -9411,7 +9411,7 @@
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A207" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B207" s="1">
         <v>905</v>
@@ -9446,7 +9446,7 @@
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A208" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B208" s="1">
         <v>268</v>
@@ -9500,7 +9500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5307C4E-D51E-4E16-960B-CB790613AD8F}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -9516,27 +9516,27 @@
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B2" s="1">
         <v>-3.36</v>
@@ -9559,7 +9559,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="11" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B3" s="1">
         <v>-2.911</v>
@@ -9582,7 +9582,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="11" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B4" s="1">
         <v>-3.4279999999999999</v>
@@ -9628,33 +9628,33 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>219</v>
-      </c>
       <c r="E1" s="8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>222</v>
-      </c>
       <c r="D2" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E2" s="9">
         <v>18</v>
@@ -9662,16 +9662,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>222</v>
-      </c>
       <c r="D3" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E3" s="9">
         <v>18</v>
@@ -9679,16 +9679,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E4" s="9">
         <v>8</v>
@@ -9696,16 +9696,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E5" s="9">
         <v>8</v>
@@ -9713,16 +9713,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E6" s="9">
         <v>8</v>
@@ -9730,13 +9730,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D7" s="5">
         <v>0</v>
@@ -9747,16 +9747,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>231</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>233</v>
       </c>
       <c r="E8" s="9">
         <v>1.5</v>
@@ -9764,13 +9764,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D9" s="5">
         <v>0</v>
@@ -9781,16 +9781,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E10" s="9">
         <v>18</v>
@@ -9798,16 +9798,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>238</v>
-      </c>
       <c r="C11" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E11" s="9">
         <v>8</v>
@@ -9815,13 +9815,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D12" s="5">
         <v>0</v>
@@ -9832,13 +9832,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D13" s="5">
         <v>0</v>
@@ -9849,13 +9849,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D14" s="5">
         <v>0</v>
@@ -9866,13 +9866,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D15" s="5">
         <v>0</v>
@@ -9883,13 +9883,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D16" s="5">
         <v>0</v>
@@ -9900,13 +9900,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D17" s="5">
         <v>0</v>
@@ -9917,16 +9917,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E18" s="9">
         <v>1.5</v>
@@ -9934,16 +9934,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E19" s="9">
         <v>1.5</v>
@@ -9951,16 +9951,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E20" s="9">
         <v>18</v>
@@ -9968,16 +9968,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>251</v>
-      </c>
       <c r="C21" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E21" s="9">
         <v>18</v>
@@ -9985,16 +9985,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E22" s="9">
         <v>18</v>
@@ -10002,16 +10002,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E23" s="9">
         <v>8</v>
@@ -10019,16 +10019,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E24" s="9">
         <v>8</v>
@@ -10036,13 +10036,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D25" s="5">
         <v>0</v>
@@ -10053,13 +10053,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D26" s="5">
         <v>0</v>
@@ -10070,16 +10070,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E27" s="9">
         <v>1.5</v>
@@ -10087,13 +10087,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D28" s="5">
         <v>0</v>
